--- a/data/output/FV2504_FV2410/UTILMD/55010.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55010.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="246">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="246">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -885,6 +885,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U110" totalsRowShown="0">
+  <autoFilter ref="A1:U110"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1174,7 +1204,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6103,5 +6136,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55010.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="352">
   <si>
     <t>#</t>
   </si>
@@ -5216,44 +5216,42 @@
       </c>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5" t="s">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K76" s="5"/>
-      <c r="L76" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M76" s="5" t="s">
+      <c r="K76" s="2"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="N76" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5" t="s">
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="V76" s="5"/>
+      <c r="V76" s="2"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5" t="s">
@@ -6123,9 +6121,7 @@
         <v>189</v>
       </c>
       <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>207</v>
-      </c>
+      <c r="L95" s="4"/>
       <c r="M95" s="5" t="s">
         <v>37</v>
       </c>
@@ -6278,46 +6274,44 @@
       <c r="V98" s="5"/>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5" t="s">
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="K99" s="5" t="s">
+      <c r="K99" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="L99" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M99" s="5" t="s">
+      <c r="L99" s="4"/>
+      <c r="M99" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N99" s="5" t="s">
+      <c r="N99" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="5"/>
-      <c r="U99" s="5" t="s">
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="V99" s="5" t="s">
+      <c r="V99" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6573,9 +6567,7 @@
         <v>189</v>
       </c>
       <c r="K104" s="5"/>
-      <c r="L104" s="7" t="s">
-        <v>207</v>
-      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="5" t="s">
         <v>38</v>
       </c>

--- a/data/output/FV2504_FV2410/UTILMD/55010.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55010.xlsx
@@ -1187,7 +1187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1210,6 +1210,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1218,6 +1221,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1660,7 +1666,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2024,7 +2030,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2170,7 +2176,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2372,7 +2378,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2680,7 +2686,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2880,7 +2886,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3254,7 +3260,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3562,7 +3568,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3738,52 +3744,52 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K43" s="5"/>
+      <c r="K43" s="2"/>
       <c r="L43" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="V43" s="5"/>
+      <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="5" t="s">
@@ -3968,26 +3974,26 @@
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8" t="s">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="L47" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M47" s="5"/>
@@ -4005,33 +4011,33 @@
       <c r="A48" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="J48" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M48" s="5"/>
@@ -4049,33 +4055,33 @@
       <c r="A49" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="J49" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M49" s="5"/>
@@ -4093,31 +4099,31 @@
       <c r="A50" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8" t="s">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="s">
+      <c r="H50" s="9"/>
+      <c r="I50" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="9" t="s">
+      <c r="J50" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M50" s="5"/>
@@ -4135,31 +4141,31 @@
       <c r="A51" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8" t="s">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9" t="s">
+      <c r="J51" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M51" s="5"/>
@@ -4187,29 +4193,29 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="10" t="s">
+      <c r="L52" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M52" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="N52" s="11" t="s">
+      <c r="N52" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O52" s="11" t="s">
+      <c r="O52" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11" t="s">
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11" t="s">
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="V52" s="11"/>
+      <c r="V52" s="13"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="5" t="s">
@@ -4225,35 +4231,35 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="N53" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P53" s="11" t="s">
+      <c r="P53" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="Q53" s="11" t="s">
+      <c r="Q53" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="R53" s="11" t="s">
+      <c r="R53" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11" t="s">
+      <c r="S53" s="13"/>
+      <c r="T53" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="U53" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="V53" s="11"/>
+      <c r="U53" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="V53" s="13"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="5" t="s">
@@ -4269,33 +4275,33 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Q54" s="11" t="s">
+      <c r="Q54" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11" t="s">
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="U54" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="V54" s="11"/>
+      <c r="U54" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="V54" s="13"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -4311,35 +4317,35 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="Q55" s="11" t="s">
+      <c r="Q55" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="R55" s="11" t="s">
+      <c r="R55" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11" t="s">
+      <c r="S55" s="13"/>
+      <c r="T55" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="U55" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="V55" s="11"/>
+      <c r="U55" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -4355,29 +4361,29 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11" t="s">
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11" t="s">
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="V56" s="11"/>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4393,35 +4399,35 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="R57" s="11" t="s">
+      <c r="R57" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11" t="s">
+      <c r="S57" s="13"/>
+      <c r="T57" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="U57" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="V57" s="11"/>
+      <c r="U57" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="V57" s="13"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -4437,35 +4443,35 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q58" s="11" t="s">
+      <c r="Q58" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="R58" s="11" t="s">
+      <c r="R58" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11" t="s">
+      <c r="S58" s="13"/>
+      <c r="T58" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="U58" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="V58" s="11"/>
+      <c r="U58" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
@@ -4481,33 +4487,33 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P59" s="11" t="s">
+      <c r="P59" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11" t="s">
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11" t="s">
+      <c r="S59" s="13"/>
+      <c r="T59" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="U59" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="V59" s="11"/>
+      <c r="U59" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="V59" s="13"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
@@ -4523,35 +4529,35 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O60" s="11" t="s">
+      <c r="O60" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q60" s="11" t="s">
+      <c r="Q60" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="R60" s="11" t="s">
+      <c r="R60" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11" t="s">
+      <c r="S60" s="13"/>
+      <c r="T60" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="U60" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="V60" s="11"/>
+      <c r="U60" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="V60" s="13"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -4567,33 +4573,33 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P61" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11" t="s">
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11" t="s">
+      <c r="S61" s="13"/>
+      <c r="T61" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U61" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="V61" s="11"/>
+      <c r="U61" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -4609,33 +4615,33 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11" t="s">
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11" t="s">
+      <c r="S62" s="13"/>
+      <c r="T62" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="U62" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="V62" s="11"/>
+      <c r="U62" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4651,50 +4657,50 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11" t="s">
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11" t="s">
+      <c r="S63" s="13"/>
+      <c r="T63" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="U63" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="V63" s="11"/>
+      <c r="U63" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="V63" s="13"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
       <c r="J64" s="6" t="s">
         <v>196</v>
       </c>
@@ -4704,18 +4710,18 @@
       <c r="L64" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M64" s="5" t="s">
+      <c r="M64" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N64" s="5" t="s">
+      <c r="N64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
       <c r="U64" s="6" t="s">
         <v>240</v>
       </c>
@@ -4905,25 +4911,25 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="N68" s="11" t="s">
+      <c r="N68" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11" t="s">
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="V68" s="11" t="s">
+      <c r="V68" s="13" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4941,29 +4947,29 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11" t="s">
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11" t="s">
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="V69" s="11"/>
+      <c r="V69" s="13"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
@@ -4979,35 +4985,35 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="10" t="s">
+      <c r="L70" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="N70" s="11" t="s">
+      <c r="N70" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O70" s="11" t="s">
+      <c r="O70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P70" s="11" t="s">
+      <c r="P70" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="R70" s="11" t="s">
+      <c r="R70" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11" t="s">
+      <c r="S70" s="13"/>
+      <c r="T70" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="U70" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="V70" s="11"/>
+      <c r="U70" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="V70" s="13"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
@@ -5023,33 +5029,33 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="10" t="s">
+      <c r="L71" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M71" s="11" t="s">
+      <c r="M71" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="N71" s="11" t="s">
+      <c r="N71" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O71" s="11" t="s">
+      <c r="O71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P71" s="11" t="s">
+      <c r="P71" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Q71" s="11" t="s">
+      <c r="Q71" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11" t="s">
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="U71" s="11" t="s">
+      <c r="U71" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="V71" s="11" t="s">
+      <c r="V71" s="13" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5067,25 +5073,25 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="10" t="s">
+      <c r="L72" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M72" s="11" t="s">
+      <c r="M72" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="N72" s="11" t="s">
+      <c r="N72" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11" t="s">
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="V72" s="11" t="s">
+      <c r="V72" s="13" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5103,29 +5109,29 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="10" t="s">
+      <c r="L73" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M73" s="11" t="s">
+      <c r="M73" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N73" s="11" t="s">
+      <c r="N73" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O73" s="11" t="s">
+      <c r="O73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11" t="s">
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11" t="s">
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="V73" s="11"/>
+      <c r="V73" s="13"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="5" t="s">
@@ -5141,35 +5147,35 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="10" t="s">
+      <c r="L74" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M74" s="11" t="s">
+      <c r="M74" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N74" s="11" t="s">
+      <c r="N74" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O74" s="11" t="s">
+      <c r="O74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P74" s="11" t="s">
+      <c r="P74" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="R74" s="11" t="s">
+      <c r="R74" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11" t="s">
+      <c r="S74" s="13"/>
+      <c r="T74" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="U74" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="V74" s="11"/>
+      <c r="U74" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="V74" s="13"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
@@ -5185,33 +5191,33 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="M75" s="11" t="s">
+      <c r="M75" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N75" s="11" t="s">
+      <c r="N75" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O75" s="11" t="s">
+      <c r="O75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P75" s="11" t="s">
+      <c r="P75" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Q75" s="11" t="s">
+      <c r="Q75" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11" t="s">
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="U75" s="11" t="s">
+      <c r="U75" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="V75" s="11" t="s">
+      <c r="V75" s="13" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5236,7 +5242,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -5428,22 +5434,22 @@
       <c r="B80" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8" t="s">
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="K80" s="8" t="s">
+      <c r="K80" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="L80" s="9" t="s">
+      <c r="L80" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M80" s="5"/>
@@ -5461,27 +5467,27 @@
       <c r="A81" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8" t="s">
+      <c r="E81" s="9"/>
+      <c r="F81" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8" t="s">
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="9" t="s">
+      <c r="K81" s="9"/>
+      <c r="L81" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M81" s="5"/>
@@ -5499,33 +5505,33 @@
       <c r="A82" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G82" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8" t="s">
+      <c r="H82" s="9"/>
+      <c r="I82" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J82" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K82" s="8"/>
-      <c r="L82" s="9" t="s">
+      <c r="J82" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K82" s="9"/>
+      <c r="L82" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M82" s="5"/>
@@ -5546,24 +5552,24 @@
       <c r="B83" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8" t="s">
+      <c r="E83" s="9"/>
+      <c r="F83" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8" t="s">
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="K83" s="8"/>
-      <c r="L83" s="9" t="s">
+      <c r="K83" s="9"/>
+      <c r="L83" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M83" s="5"/>
@@ -5581,33 +5587,33 @@
       <c r="A84" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8" t="s">
+      <c r="H84" s="9"/>
+      <c r="I84" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J84" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="9" t="s">
+      <c r="J84" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K84" s="9"/>
+      <c r="L84" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M84" s="5"/>
@@ -5625,33 +5631,33 @@
       <c r="A85" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8" t="s">
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="J85" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="K85" s="8" t="s">
+      <c r="K85" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="L85" s="9" t="s">
+      <c r="L85" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M85" s="5"/>
@@ -5672,20 +5678,20 @@
       <c r="B86" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8" t="s">
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="9" t="s">
+      <c r="K86" s="9"/>
+      <c r="L86" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M86" s="5"/>
@@ -5703,27 +5709,27 @@
       <c r="A87" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8" t="s">
+      <c r="E87" s="9"/>
+      <c r="F87" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8" t="s">
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="K87" s="8"/>
-      <c r="L87" s="9" t="s">
+      <c r="K87" s="9"/>
+      <c r="L87" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M87" s="5"/>
@@ -5741,33 +5747,33 @@
       <c r="A88" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8" t="s">
+      <c r="H88" s="9"/>
+      <c r="I88" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J88" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="9" t="s">
+      <c r="J88" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K88" s="9"/>
+      <c r="L88" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M88" s="5"/>
@@ -5785,33 +5791,33 @@
       <c r="A89" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8" t="s">
+      <c r="H89" s="9"/>
+      <c r="I89" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J89" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="9" t="s">
+      <c r="J89" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K89" s="9"/>
+      <c r="L89" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M89" s="5"/>
@@ -5826,21 +5832,21 @@
       <c r="V89" s="5"/>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
       <c r="J90" s="6" t="s">
         <v>198</v>
       </c>
@@ -5850,18 +5856,18 @@
       <c r="L90" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M90" s="5" t="s">
+      <c r="M90" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N90" s="5" t="s">
+      <c r="N90" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
       <c r="U90" s="6" t="s">
         <v>243</v>
       </c>
@@ -6154,24 +6160,24 @@
       <c r="B96" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8" t="s">
+      <c r="E96" s="9"/>
+      <c r="F96" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8" t="s">
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="K96" s="8"/>
-      <c r="L96" s="9" t="s">
+      <c r="K96" s="9"/>
+      <c r="L96" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M96" s="5"/>
@@ -6189,33 +6195,33 @@
       <c r="A97" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8" t="s">
+      <c r="H97" s="9"/>
+      <c r="I97" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J97" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="9" t="s">
+      <c r="J97" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K97" s="9"/>
+      <c r="L97" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M97" s="5"/>
@@ -6233,33 +6239,33 @@
       <c r="A98" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8" t="s">
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J98" s="8" t="s">
+      <c r="J98" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="K98" s="8" t="s">
+      <c r="K98" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="L98" s="9" t="s">
+      <c r="L98" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M98" s="5"/>
@@ -6296,7 +6302,7 @@
         <v>206</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -6600,24 +6606,24 @@
       <c r="B105" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8" t="s">
+      <c r="E105" s="9"/>
+      <c r="F105" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8" t="s">
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="K105" s="8"/>
-      <c r="L105" s="9" t="s">
+      <c r="K105" s="9"/>
+      <c r="L105" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M105" s="5"/>
@@ -6635,33 +6641,33 @@
       <c r="A106" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G106" s="8" t="s">
+      <c r="G106" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8" t="s">
+      <c r="H106" s="9"/>
+      <c r="I106" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J106" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K106" s="8"/>
-      <c r="L106" s="9" t="s">
+      <c r="J106" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K106" s="9"/>
+      <c r="L106" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M106" s="5"/>
@@ -6679,33 +6685,33 @@
       <c r="A107" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8" t="s">
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J107" s="8" t="s">
+      <c r="J107" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="K107" s="8" t="s">
+      <c r="K107" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="L107" s="9" t="s">
+      <c r="L107" s="10" t="s">
         <v>208</v>
       </c>
       <c r="M107" s="5"/>
@@ -6720,48 +6726,48 @@
       <c r="V107" s="5"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5" t="s">
+      <c r="C108" s="2"/>
+      <c r="D108" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E108" s="5"/>
+      <c r="E108" s="2"/>
       <c r="F108" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5" t="s">
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K108" s="5"/>
+      <c r="K108" s="2"/>
       <c r="L108" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M108" s="5" t="s">
+      <c r="M108" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N108" s="5"/>
-      <c r="O108" s="5" t="s">
+      <c r="N108" s="2"/>
+      <c r="O108" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P108" s="5"/>
+      <c r="P108" s="2"/>
       <c r="Q108" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
-      <c r="U108" s="5" t="s">
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="V108" s="5"/>
+      <c r="V108" s="2"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="5" t="s">
